--- a/biology/Zoologie/Beiyanerpeton/Beiyanerpeton.xlsx
+++ b/biology/Zoologie/Beiyanerpeton/Beiyanerpeton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beiyanerpeton jianpingensis
 Beiyanerpeton est un genre d'amphibiens fossiles du sous-ordre des salamandroïdes, dont le seul représentant connu est Beiyanerpeton jianpingensis.
-Plusieurs spécimens de cette espèce ont été collectés à Guancaishan dans la province du Liaoning (Nord-Est de la Chine). Ils proviennent des bancs de Daohugou, placés aujourd'hui dans la formation de Tiaojishan (biote de Yanliao), datée du Jurassique moyen à supérieur. En 2016, une datation à l'uranium-plomb dans la province du Liaoning précise son âge à 160 Ma (Oxfordien)[1],[2].
+Plusieurs spécimens de cette espèce ont été collectés à Guancaishan dans la province du Liaoning (Nord-Est de la Chine). Ils proviennent des bancs de Daohugou, placés aujourd'hui dans la formation de Tiaojishan (biote de Yanliao), datée du Jurassique moyen à supérieur. En 2016, une datation à l'uranium-plomb dans la province du Liaoning précise son âge à 160 Ma (Oxfordien),.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Keqin Gao et Neil H Shubin, « Late Jurassic salamandroid from western Liaoning, China », Proceedings of the National Academy of Sciences, Washington et États-Unis, NAS, vol. 109, no 15,‎ 10 avril 2012, p. 5767-72 (ISSN 0027-8424 et 1091-6490, OCLC 43473694 et 1607201, PMID 22411790, PMCID 3326464, DOI 10.1073/PNAS.1009828109, lire en ligne)</t>
         </is>
